--- a/src/test/java/ApachePOI/resource/NewExcelFile2.xlsx
+++ b/src/test/java/ApachePOI/resource/NewExcelFile2.xlsx
@@ -14,10 +14,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="2">
   <si>
-    <t xml:space="preserve">      x</t>
+    <t>X</t>
   </si>
   <si>
-    <t xml:space="preserve">      =</t>
+    <t>=</t>
   </si>
 </sst>
 </file>
